--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>570.3516660329495</v>
+        <v>647.8812944831577</v>
       </c>
       <c r="AB2" t="n">
-        <v>780.3803116059331</v>
+        <v>886.4597696173178</v>
       </c>
       <c r="AC2" t="n">
-        <v>705.9019099369084</v>
+        <v>801.8572933591408</v>
       </c>
       <c r="AD2" t="n">
-        <v>570351.6660329496</v>
+        <v>647881.2944831577</v>
       </c>
       <c r="AE2" t="n">
-        <v>780380.3116059331</v>
+        <v>886459.7696173177</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.908028262720145e-06</v>
+        <v>2.750736447687182e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.927734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>705901.9099369084</v>
+        <v>801857.2933591409</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.8652489250827</v>
+        <v>337.9468365564796</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.4476421159854</v>
+        <v>462.3937709387694</v>
       </c>
       <c r="AC3" t="n">
-        <v>364.9431653947569</v>
+        <v>418.2635584141059</v>
       </c>
       <c r="AD3" t="n">
-        <v>294865.2489250827</v>
+        <v>337946.8365564796</v>
       </c>
       <c r="AE3" t="n">
-        <v>403447.6421159854</v>
+        <v>462393.7709387694</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.962597612271135e-06</v>
+        <v>4.271071551260616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.25716145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>364943.1653947569</v>
+        <v>418263.5584141059</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>244.7777673303519</v>
+        <v>279.3113280208399</v>
       </c>
       <c r="AB4" t="n">
-        <v>334.915740094182</v>
+        <v>382.166081344239</v>
       </c>
       <c r="AC4" t="n">
-        <v>302.9518519168864</v>
+        <v>345.6926869142081</v>
       </c>
       <c r="AD4" t="n">
-        <v>244777.7673303519</v>
+        <v>279311.32802084</v>
       </c>
       <c r="AE4" t="n">
-        <v>334915.740094182</v>
+        <v>382166.0813442391</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.358376228716169e-06</v>
+        <v>4.841651498498137e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.049479166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>302951.8519168864</v>
+        <v>345692.6869142081</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>215.3895114195823</v>
+        <v>249.8377312554952</v>
       </c>
       <c r="AB5" t="n">
-        <v>294.70543183874</v>
+        <v>341.8390059664132</v>
       </c>
       <c r="AC5" t="n">
-        <v>266.5791590458089</v>
+        <v>309.2143710111387</v>
       </c>
       <c r="AD5" t="n">
-        <v>215389.5114195823</v>
+        <v>249837.7312554953</v>
       </c>
       <c r="AE5" t="n">
-        <v>294705.43183874</v>
+        <v>341839.0059664132</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.581987879196436e-06</v>
+        <v>5.164024457600251e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.486328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>266579.1590458089</v>
+        <v>309214.3710111387</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>202.1293048846237</v>
+        <v>236.5775247205366</v>
       </c>
       <c r="AB6" t="n">
-        <v>276.5622322585936</v>
+        <v>323.6958063862667</v>
       </c>
       <c r="AC6" t="n">
-        <v>250.1675209694454</v>
+        <v>292.8027329347752</v>
       </c>
       <c r="AD6" t="n">
-        <v>202129.3048846237</v>
+        <v>236577.5247205366</v>
       </c>
       <c r="AE6" t="n">
-        <v>276562.2322585936</v>
+        <v>323695.8063862667</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.722130295635218e-06</v>
+        <v>5.366062792302662e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.1640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>250167.5209694454</v>
+        <v>292802.7329347752</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>194.9643043531656</v>
+        <v>229.4125241890786</v>
       </c>
       <c r="AB7" t="n">
-        <v>266.7587624339432</v>
+        <v>313.8923365616164</v>
       </c>
       <c r="AC7" t="n">
-        <v>241.2996805456002</v>
+        <v>283.93489251093</v>
       </c>
       <c r="AD7" t="n">
-        <v>194964.3043531656</v>
+        <v>229412.5241890786</v>
       </c>
       <c r="AE7" t="n">
-        <v>266758.7624339432</v>
+        <v>313892.3365616164</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.791501258602582e-06</v>
+        <v>5.466072440992795e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.017578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>241299.6805456002</v>
+        <v>283934.89251093</v>
       </c>
     </row>
   </sheetData>
@@ -3379,28 +3379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>412.8844225281035</v>
+        <v>471.6357952125324</v>
       </c>
       <c r="AB2" t="n">
-        <v>564.9266820781114</v>
+        <v>645.3129021125809</v>
       </c>
       <c r="AC2" t="n">
-        <v>511.0108724201538</v>
+        <v>583.7251444373019</v>
       </c>
       <c r="AD2" t="n">
-        <v>412884.4225281035</v>
+        <v>471635.7952125324</v>
       </c>
       <c r="AE2" t="n">
-        <v>564926.6820781115</v>
+        <v>645312.902112581</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.336508430277215e-06</v>
+        <v>3.420560444925338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.45703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>511010.8724201538</v>
+        <v>583725.1444373019</v>
       </c>
     </row>
     <row r="3">
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.3816910226492</v>
+        <v>281.2982165970751</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.5325904319014</v>
+        <v>384.8846299495816</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.2733396960559</v>
+        <v>348.1517810561636</v>
       </c>
       <c r="AD3" t="n">
-        <v>239381.6910226492</v>
+        <v>281298.2165970751</v>
       </c>
       <c r="AE3" t="n">
-        <v>327532.5904319015</v>
+        <v>384884.6299495816</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.327672479365918e-06</v>
+        <v>4.871587326237556e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.446614583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>296273.3396960559</v>
+        <v>348151.7810561636</v>
       </c>
     </row>
     <row r="4">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>200.1107978743561</v>
+        <v>233.8658329489394</v>
       </c>
       <c r="AB4" t="n">
-        <v>273.8004219169024</v>
+        <v>319.9855500729714</v>
       </c>
       <c r="AC4" t="n">
-        <v>247.6692939305392</v>
+        <v>289.4465782766421</v>
       </c>
       <c r="AD4" t="n">
-        <v>200110.7978743561</v>
+        <v>233865.8329489394</v>
       </c>
       <c r="AE4" t="n">
-        <v>273800.4219169024</v>
+        <v>319985.5500729714</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.697789477622388e-06</v>
+        <v>5.413424688271117e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.502604166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>247669.2939305392</v>
+        <v>289446.5782766421</v>
       </c>
     </row>
     <row r="5">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.6304218966588</v>
+        <v>218.2148647706499</v>
       </c>
       <c r="AB5" t="n">
-        <v>252.6194885582394</v>
+        <v>298.5712049394615</v>
       </c>
       <c r="AC5" t="n">
-        <v>228.5098391239935</v>
+        <v>270.0759881874454</v>
       </c>
       <c r="AD5" t="n">
-        <v>184630.4218966588</v>
+        <v>218214.8647706498</v>
       </c>
       <c r="AE5" t="n">
-        <v>252619.4885582394</v>
+        <v>298571.2049394615</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.884586522149532e-06</v>
+        <v>5.686888534349641e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.092447916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>228509.8391239935</v>
+        <v>270075.9881874454</v>
       </c>
     </row>
     <row r="6">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>183.2590150813859</v>
+        <v>216.843457955377</v>
       </c>
       <c r="AB6" t="n">
-        <v>250.7430692513853</v>
+        <v>296.6947856326075</v>
       </c>
       <c r="AC6" t="n">
-        <v>226.812502642214</v>
+        <v>268.3786517056658</v>
       </c>
       <c r="AD6" t="n">
-        <v>183259.0150813859</v>
+        <v>216843.457955377</v>
       </c>
       <c r="AE6" t="n">
-        <v>250743.0692513853</v>
+        <v>296694.7856326075</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.904096864959502e-06</v>
+        <v>5.715450942264772e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.053385416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>226812.5026422139</v>
+        <v>268378.6517056659</v>
       </c>
     </row>
   </sheetData>
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.4931520412565</v>
+        <v>219.1590035118631</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.9586934186167</v>
+        <v>299.8630172176504</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.3893023275187</v>
+        <v>271.2445117148743</v>
       </c>
       <c r="AD2" t="n">
-        <v>180493.1520412565</v>
+        <v>219159.0035118631</v>
       </c>
       <c r="AE2" t="n">
-        <v>246958.6934186167</v>
+        <v>299863.0172176504</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.767408918850625e-06</v>
+        <v>5.828646619727053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.313151041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>223389.3023275187</v>
+        <v>271244.5117148743</v>
       </c>
     </row>
     <row r="3">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.113528359412</v>
+        <v>186.2680241509426</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.2331726271599</v>
+        <v>254.860128208462</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.977936502813</v>
+        <v>230.5366352707571</v>
       </c>
       <c r="AD3" t="n">
-        <v>155113.528359412</v>
+        <v>186268.0241509426</v>
       </c>
       <c r="AE3" t="n">
-        <v>212233.1726271599</v>
+        <v>254860.1282084619</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.09192168503266e-06</v>
+        <v>6.330707924567371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.57421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>191977.936502813</v>
+        <v>230536.6352707571</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.855754409548</v>
+        <v>284.0484228228455</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.6542013395994</v>
+        <v>388.6475834382163</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.8107126504599</v>
+        <v>351.5556035451813</v>
       </c>
       <c r="AD2" t="n">
-        <v>243855.754409548</v>
+        <v>284048.4228228455</v>
       </c>
       <c r="AE2" t="n">
-        <v>333654.2013395993</v>
+        <v>388647.5834382162</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.185345475981926e-06</v>
+        <v>4.813993405247307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.537109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>301810.71265046</v>
+        <v>351555.6035451813</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.3856153802728</v>
+        <v>199.3862260812301</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.0243834953621</v>
+        <v>272.8090308236964</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.1666177723718</v>
+        <v>246.7725198118424</v>
       </c>
       <c r="AD3" t="n">
-        <v>167385.6153802728</v>
+        <v>199386.2260812301</v>
       </c>
       <c r="AE3" t="n">
-        <v>229024.3834953621</v>
+        <v>272809.0308236965</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.007406700815352e-06</v>
+        <v>6.056369576025994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.375651041666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>207166.6177723717</v>
+        <v>246772.5198118424</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.5308759588038</v>
+        <v>196.5314866597611</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.1184030766954</v>
+        <v>268.9030504050298</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.6334186427835</v>
+        <v>243.2393206822541</v>
       </c>
       <c r="AD4" t="n">
-        <v>164530.8759588038</v>
+        <v>196531.4866597611</v>
       </c>
       <c r="AE4" t="n">
-        <v>225118.4030766955</v>
+        <v>268903.0504050298</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.06143405335677e-06</v>
+        <v>6.138020788052589e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.264973958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>203633.4186427835</v>
+        <v>243239.3206822541</v>
       </c>
     </row>
   </sheetData>
@@ -5012,28 +5012,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.8431255387522</v>
+        <v>186.0784615958675</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.2314396754885</v>
+        <v>254.6007603576985</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.8809303451261</v>
+        <v>230.3020211236454</v>
       </c>
       <c r="AD2" t="n">
-        <v>155843.1255387522</v>
+        <v>186078.4615958675</v>
       </c>
       <c r="AE2" t="n">
-        <v>213231.4396754885</v>
+        <v>254600.7603576985</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.046532505254278e-06</v>
+        <v>6.395496027085064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.00390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>192880.9303451261</v>
+        <v>230302.0211236454</v>
       </c>
     </row>
     <row r="3">
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.6863082575814</v>
+        <v>186.9216443146967</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.3851194699863</v>
+        <v>255.7544401521963</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.9245045592371</v>
+        <v>231.3455953377564</v>
       </c>
       <c r="AD3" t="n">
-        <v>156686.3082575814</v>
+        <v>186921.6443146967</v>
       </c>
       <c r="AE3" t="n">
-        <v>214385.1194699863</v>
+        <v>255754.4401521963</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.047875715402353e-06</v>
+        <v>6.397618954592602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.000651041666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>193924.5045592371</v>
+        <v>231345.5953377564</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>453.2854011464462</v>
+        <v>512.5194283675079</v>
       </c>
       <c r="AB2" t="n">
-        <v>620.2050833891117</v>
+        <v>701.2516926538174</v>
       </c>
       <c r="AC2" t="n">
-        <v>561.0135806937557</v>
+        <v>634.3252153198684</v>
       </c>
       <c r="AD2" t="n">
-        <v>453285.4011464462</v>
+        <v>512519.4283675079</v>
       </c>
       <c r="AE2" t="n">
-        <v>620205.0833891117</v>
+        <v>701251.6926538174</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.217982864604531e-06</v>
+        <v>3.233566807340903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.04622395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>561013.5806937556</v>
+        <v>634325.2153198684</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>250.3347419765788</v>
+        <v>292.7056552387835</v>
       </c>
       <c r="AB3" t="n">
-        <v>342.5190379615648</v>
+        <v>400.4927907598415</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.8295017071043</v>
+        <v>362.2703209048835</v>
       </c>
       <c r="AD3" t="n">
-        <v>250334.7419765787</v>
+        <v>292705.6552387835</v>
       </c>
       <c r="AE3" t="n">
-        <v>342519.0379615648</v>
+        <v>400492.7907598414</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.233840457477303e-06</v>
+        <v>4.714571663473693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>309829.5017071043</v>
+        <v>362270.3209048836</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>208.9050039075171</v>
+        <v>251.1905763151465</v>
       </c>
       <c r="AB4" t="n">
-        <v>285.8330425844557</v>
+        <v>343.6900282603389</v>
       </c>
       <c r="AC4" t="n">
-        <v>258.5535381694741</v>
+        <v>310.8887343352589</v>
       </c>
       <c r="AD4" t="n">
-        <v>208905.0039075171</v>
+        <v>251190.5763151465</v>
       </c>
       <c r="AE4" t="n">
-        <v>285833.0425844557</v>
+        <v>343690.0282603389</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.60723727928044e-06</v>
+        <v>5.258941770302489e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.639322916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>258553.5381694741</v>
+        <v>310888.7343352589</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.3706865810468</v>
+        <v>225.1821658447871</v>
       </c>
       <c r="AB5" t="n">
-        <v>261.8418160589057</v>
+        <v>308.1041736447212</v>
       </c>
       <c r="AC5" t="n">
-        <v>236.8520006316172</v>
+        <v>278.6991437390838</v>
       </c>
       <c r="AD5" t="n">
-        <v>191370.6865810468</v>
+        <v>225182.1658447871</v>
       </c>
       <c r="AE5" t="n">
-        <v>261841.8160589058</v>
+        <v>308104.1736447212</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.813988659720013e-06</v>
+        <v>5.560361773058243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.170572916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>236852.0006316171</v>
+        <v>278699.1437390838</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>186.046347560851</v>
+        <v>219.8578268245913</v>
       </c>
       <c r="AB6" t="n">
-        <v>254.5568205182178</v>
+        <v>300.8191781040333</v>
       </c>
       <c r="AC6" t="n">
-        <v>230.2622748407747</v>
+        <v>272.1094179482413</v>
       </c>
       <c r="AD6" t="n">
-        <v>186046.347560851</v>
+        <v>219857.8268245913</v>
       </c>
       <c r="AE6" t="n">
-        <v>254556.8205182178</v>
+        <v>300819.1781040332</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.87438686391324e-06</v>
+        <v>5.648415486826244e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.043619791666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>230262.2748407747</v>
+        <v>272109.4179482413</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.9639466416406</v>
+        <v>189.9701643462669</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.2920200880541</v>
+        <v>259.9255597506004</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.317483434105</v>
+        <v>235.1186291358933</v>
       </c>
       <c r="AD2" t="n">
-        <v>152963.9466416406</v>
+        <v>189970.1643462669</v>
       </c>
       <c r="AE2" t="n">
-        <v>209292.0200880541</v>
+        <v>259925.5597506005</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.966342308687747e-06</v>
+        <v>6.355012063116123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.401041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>189317.483434105</v>
+        <v>235118.6291358933</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.9924342684022</v>
+        <v>374.4542423130694</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.723033285237</v>
+        <v>512.3448140880074</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.3291157225936</v>
+        <v>463.4473441119101</v>
       </c>
       <c r="AD2" t="n">
-        <v>316992.4342684022</v>
+        <v>374454.2423130693</v>
       </c>
       <c r="AE2" t="n">
-        <v>433723.033285237</v>
+        <v>512344.8140880074</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.720098194178644e-06</v>
+        <v>4.038919299150321e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.90755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>392329.1157225936</v>
+        <v>463447.3441119101</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.7902802193063</v>
+        <v>239.8710034745986</v>
       </c>
       <c r="AB3" t="n">
-        <v>271.9936314041367</v>
+        <v>328.2020893156001</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.0349409684649</v>
+        <v>296.8789425459422</v>
       </c>
       <c r="AD3" t="n">
-        <v>198790.2802193063</v>
+        <v>239871.0034745986</v>
       </c>
       <c r="AE3" t="n">
-        <v>271993.6314041368</v>
+        <v>328202.0893156001</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.642388018706619e-06</v>
+        <v>5.40837507088242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.893229166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>246034.9409684649</v>
+        <v>296878.9425459421</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.3327018140287</v>
+        <v>208.1803017558993</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.8979377547307</v>
+        <v>284.8414731290102</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.0024152743589</v>
+        <v>257.6566027111796</v>
       </c>
       <c r="AD4" t="n">
-        <v>175332.7018140287</v>
+        <v>208180.3017558993</v>
       </c>
       <c r="AE4" t="n">
-        <v>239897.9377547307</v>
+        <v>284841.4731290102</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.962124445789958e-06</v>
+        <v>5.8831335295116e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>217002.4152743589</v>
+        <v>257656.6027111796</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.426655897397</v>
+        <v>207.2742558392675</v>
       </c>
       <c r="AB5" t="n">
-        <v>238.658245759671</v>
+        <v>283.6017811339505</v>
       </c>
       <c r="AC5" t="n">
-        <v>215.8810377433887</v>
+        <v>256.5352251802094</v>
       </c>
       <c r="AD5" t="n">
-        <v>174426.655897397</v>
+        <v>207274.2558392675</v>
       </c>
       <c r="AE5" t="n">
-        <v>238658.245759671</v>
+        <v>283601.7811339505</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.979439770505955e-06</v>
+        <v>5.908844071622236e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.141276041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>215881.0377433887</v>
+        <v>256535.2251802094</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.2210526039092</v>
+        <v>434.6452546008645</v>
       </c>
       <c r="AB2" t="n">
-        <v>514.7622418741034</v>
+        <v>594.7008125402193</v>
       </c>
       <c r="AC2" t="n">
-        <v>465.6340559829823</v>
+        <v>537.9434016592127</v>
       </c>
       <c r="AD2" t="n">
-        <v>376221.0526039092</v>
+        <v>434645.2546008645</v>
       </c>
       <c r="AE2" t="n">
-        <v>514762.2418741034</v>
+        <v>594700.8125402193</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.456497315177108e-06</v>
+        <v>3.612138002134825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.919921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>465634.0559829823</v>
+        <v>537943.4016592127</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.7298538217198</v>
+        <v>270.3517922293639</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.9582768477055</v>
+        <v>369.907249207519</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.0899781451535</v>
+        <v>334.6038205112375</v>
       </c>
       <c r="AD3" t="n">
-        <v>228729.8538217199</v>
+        <v>270351.7922293639</v>
       </c>
       <c r="AE3" t="n">
-        <v>312958.2768477055</v>
+        <v>369907.249207519</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.425582288406658e-06</v>
+        <v>5.037121712669795e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.264322916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>283089.9781451535</v>
+        <v>334603.8205112375</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.679299420104</v>
+        <v>225.0280725606698</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.2640737603411</v>
+        <v>307.8933364152762</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.2339586506701</v>
+        <v>278.508428518905</v>
       </c>
       <c r="AD4" t="n">
-        <v>191679.299420104</v>
+        <v>225028.0725606698</v>
       </c>
       <c r="AE4" t="n">
-        <v>262264.0737603412</v>
+        <v>307893.3364152762</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.783614285760407e-06</v>
+        <v>5.563587170470822e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.388671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>237233.9586506701</v>
+        <v>278508.428518905</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>180.0331955942839</v>
+        <v>213.3819687348497</v>
       </c>
       <c r="AB5" t="n">
-        <v>246.3293607160227</v>
+        <v>291.9586233709577</v>
       </c>
       <c r="AC5" t="n">
-        <v>222.8200322547862</v>
+        <v>264.094502123021</v>
       </c>
       <c r="AD5" t="n">
-        <v>180033.1955942839</v>
+        <v>213381.9687348497</v>
       </c>
       <c r="AE5" t="n">
-        <v>246329.3607160227</v>
+        <v>291958.6233709577</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.926164062484584e-06</v>
+        <v>5.773198417558267e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.082682291666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>222820.0322547862</v>
+        <v>264094.5021230209</v>
       </c>
     </row>
     <row r="6">
@@ -7472,28 +7472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>180.5969458034957</v>
+        <v>213.9457189440615</v>
       </c>
       <c r="AB6" t="n">
-        <v>247.1007086231699</v>
+        <v>292.7299712781048</v>
       </c>
       <c r="AC6" t="n">
-        <v>223.517763800269</v>
+        <v>264.7922336685038</v>
       </c>
       <c r="AD6" t="n">
-        <v>180596.9458034957</v>
+        <v>213945.7189440615</v>
       </c>
       <c r="AE6" t="n">
-        <v>247100.7086231699</v>
+        <v>292729.9712781048</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.924896520010293e-06</v>
+        <v>5.771334569259953e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.0859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>223517.763800269</v>
+        <v>264792.2336685038</v>
       </c>
     </row>
   </sheetData>
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>531.3916289588085</v>
+        <v>599.8769984248497</v>
       </c>
       <c r="AB2" t="n">
-        <v>727.0734700855642</v>
+        <v>820.7781739502657</v>
       </c>
       <c r="AC2" t="n">
-        <v>657.6825985546214</v>
+        <v>742.4442569978537</v>
       </c>
       <c r="AD2" t="n">
-        <v>531391.6289588085</v>
+        <v>599876.9984248497</v>
       </c>
       <c r="AE2" t="n">
-        <v>727073.4700855642</v>
+        <v>820778.1739502656</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.005629463491877e-06</v>
+        <v>2.90168956633821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.2734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>657682.5985546215</v>
+        <v>742444.2569978538</v>
       </c>
     </row>
     <row r="3">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>282.3428292017793</v>
+        <v>325.1675538974046</v>
       </c>
       <c r="AB3" t="n">
-        <v>386.3139150003934</v>
+        <v>444.9085926224619</v>
       </c>
       <c r="AC3" t="n">
-        <v>349.4446571477401</v>
+        <v>402.4471409757049</v>
       </c>
       <c r="AD3" t="n">
-        <v>282342.8292017793</v>
+        <v>325167.5538974046</v>
       </c>
       <c r="AE3" t="n">
-        <v>386313.9150003934</v>
+        <v>444908.5926224618</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.049524260031312e-06</v>
+        <v>4.411967857822581e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.04557291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>349444.6571477401</v>
+        <v>402447.1409757049</v>
       </c>
     </row>
     <row r="4">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.5092350163991</v>
+        <v>269.3338702034762</v>
       </c>
       <c r="AB4" t="n">
-        <v>309.9199282314797</v>
+        <v>368.5144833841491</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.3416052565102</v>
+        <v>333.3439783032909</v>
       </c>
       <c r="AD4" t="n">
-        <v>226509.2350163991</v>
+        <v>269333.8702034762</v>
       </c>
       <c r="AE4" t="n">
-        <v>309919.9282314797</v>
+        <v>368514.483384149</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.445078698352196e-06</v>
+        <v>4.984245144074728e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.893229166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>280341.6052565102</v>
+        <v>333343.9783032909</v>
       </c>
     </row>
     <row r="5">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.249078737157</v>
+        <v>241.4918082244527</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.5673327121075</v>
+        <v>330.4197458792083</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.5040644673984</v>
+        <v>298.8849490796209</v>
       </c>
       <c r="AD5" t="n">
-        <v>207249.078737157</v>
+        <v>241491.8082244527</v>
       </c>
       <c r="AE5" t="n">
-        <v>283567.3327121076</v>
+        <v>330419.7458792083</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.663419478010643e-06</v>
+        <v>5.300134581168466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.362630208333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>256504.0644673984</v>
+        <v>298884.9490796209</v>
       </c>
     </row>
     <row r="6">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>194.9490753278974</v>
+        <v>229.1918048151931</v>
       </c>
       <c r="AB6" t="n">
-        <v>266.737925409714</v>
+        <v>313.5903385768148</v>
       </c>
       <c r="AC6" t="n">
-        <v>241.2808321777184</v>
+        <v>283.6617167899409</v>
       </c>
       <c r="AD6" t="n">
-        <v>194949.0753278974</v>
+        <v>229191.8048151931</v>
       </c>
       <c r="AE6" t="n">
-        <v>266737.925409714</v>
+        <v>313590.3385768147</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.788494864289124e-06</v>
+        <v>5.481090211296732e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.0859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>241280.8321777184</v>
+        <v>283661.7167899409</v>
       </c>
     </row>
     <row r="7">
@@ -8299,28 +8299,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>192.401150069157</v>
+        <v>226.6438795564527</v>
       </c>
       <c r="AB7" t="n">
-        <v>263.2517416641781</v>
+        <v>310.1041548312788</v>
       </c>
       <c r="AC7" t="n">
-        <v>238.1273649159658</v>
+        <v>280.5082495281882</v>
       </c>
       <c r="AD7" t="n">
-        <v>192401.150069157</v>
+        <v>226643.8795564527</v>
       </c>
       <c r="AE7" t="n">
-        <v>263251.7416641781</v>
+        <v>310104.1548312788</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.811834740735371e-06</v>
+        <v>5.514857702848132e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.037109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>238127.3649159658</v>
+        <v>280508.2495281882</v>
       </c>
     </row>
   </sheetData>
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.6572258257464</v>
+        <v>313.1467403703684</v>
       </c>
       <c r="AB2" t="n">
-        <v>362.1156922275504</v>
+        <v>428.4611852339062</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.5558787939182</v>
+        <v>387.5694510642317</v>
       </c>
       <c r="AD2" t="n">
-        <v>264657.2258257464</v>
+        <v>313146.7403703684</v>
       </c>
       <c r="AE2" t="n">
-        <v>362115.6922275504</v>
+        <v>428461.1852339062</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.015461552471569e-06</v>
+        <v>4.528272217560083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>327555.8787939182</v>
+        <v>387569.4510642317</v>
       </c>
     </row>
     <row r="3">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.7580792827065</v>
+        <v>210.2266570700735</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.2164462074763</v>
+        <v>287.6413867486868</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.0042099379315</v>
+        <v>260.1892965046986</v>
       </c>
       <c r="AD3" t="n">
-        <v>177758.0792827065</v>
+        <v>210226.6570700735</v>
       </c>
       <c r="AE3" t="n">
-        <v>243216.4462074763</v>
+        <v>287641.3867486868</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.882316387793949e-06</v>
+        <v>5.830014786365381e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.538411458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>220004.2099379315</v>
+        <v>260189.2965046986</v>
       </c>
     </row>
     <row r="4">
@@ -8808,28 +8808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.6239949861308</v>
+        <v>199.9219805729055</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.3505449886628</v>
+        <v>273.5420737550264</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.4616508705225</v>
+        <v>247.4356021546386</v>
       </c>
       <c r="AD4" t="n">
-        <v>167623.9949861308</v>
+        <v>199921.9805729055</v>
       </c>
       <c r="AE4" t="n">
-        <v>229350.5449886628</v>
+        <v>273542.0737550264</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.037177346746891e-06</v>
+        <v>6.062567105739689e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.209635416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>207461.6508705225</v>
+        <v>247435.6021546386</v>
       </c>
     </row>
   </sheetData>
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.3218141707274</v>
+        <v>237.6127741311291</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.3526554892081</v>
+        <v>325.1122803018192</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.4551388952414</v>
+        <v>294.0840205678614</v>
       </c>
       <c r="AD2" t="n">
-        <v>198321.8141707274</v>
+        <v>237612.7741311291</v>
       </c>
       <c r="AE2" t="n">
-        <v>271352.6554892081</v>
+        <v>325112.2803018192</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.55653942081376e-06</v>
+        <v>5.454830773942805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.70703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>245455.1388952414</v>
+        <v>294084.0205678614</v>
       </c>
     </row>
     <row r="3">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.097873555114</v>
+        <v>189.4453901774148</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.3164853839353</v>
+        <v>259.2075405813749</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.6715436210485</v>
+        <v>234.4691367084322</v>
       </c>
       <c r="AD3" t="n">
-        <v>158097.873555114</v>
+        <v>189445.3901774148</v>
       </c>
       <c r="AE3" t="n">
-        <v>216316.4853839353</v>
+        <v>259207.5405813749</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.092130882467887e-06</v>
+        <v>6.276292436983634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>195671.5436210485</v>
+        <v>234469.1367084322</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.874513116331</v>
+        <v>194.1304727122159</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.274385543854</v>
+        <v>265.6178771967406</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.9197775200897</v>
+        <v>240.2676797941933</v>
       </c>
       <c r="AD2" t="n">
-        <v>155874.513116331</v>
+        <v>194130.4727122159</v>
       </c>
       <c r="AE2" t="n">
-        <v>213274.385543854</v>
+        <v>265617.8771967406</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.990986998236695e-06</v>
+        <v>6.235838461067388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.948567708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>192919.7775200897</v>
+        <v>240267.6797941933</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.9255516350075</v>
+        <v>190.1815112308925</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.8712422292249</v>
+        <v>260.2147338821115</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.0323026200478</v>
+        <v>235.3802048941515</v>
       </c>
       <c r="AD3" t="n">
-        <v>151925.5516350075</v>
+        <v>190181.5112308924</v>
       </c>
       <c r="AE3" t="n">
-        <v>207871.2422292249</v>
+        <v>260214.7338821115</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.084680895383082e-06</v>
+        <v>6.382233327212247e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.743489583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>188032.3026200478</v>
+        <v>235380.2048941515</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.7231628452344</v>
+        <v>194.0966922950368</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.8037896596084</v>
+        <v>265.5716573396693</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.2077788570782</v>
+        <v>240.225871095411</v>
       </c>
       <c r="AD2" t="n">
-        <v>157723.1628452344</v>
+        <v>194096.6922950368</v>
       </c>
       <c r="AE2" t="n">
-        <v>215803.7896596084</v>
+        <v>265571.6573396693</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.800165292831915e-06</v>
+        <v>6.193038679546518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.087890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>195207.7788570782</v>
+        <v>240225.871095411</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.0665658344438</v>
+        <v>399.7644883237503</v>
       </c>
       <c r="AB2" t="n">
-        <v>478.9765192215996</v>
+        <v>546.9754092890689</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.2636724748562</v>
+        <v>494.7728439113278</v>
       </c>
       <c r="AD2" t="n">
-        <v>350066.5658344438</v>
+        <v>399764.4883237503</v>
       </c>
       <c r="AE2" t="n">
-        <v>478976.5192215996</v>
+        <v>546975.4092890689</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.583435919903075e-06</v>
+        <v>3.816718638414248e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.40885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>433263.6724748562</v>
+        <v>494772.8439113278</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.6525815755429</v>
+        <v>250.8414536409783</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.8018642657327</v>
+        <v>343.2123432153368</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.3800723078407</v>
+        <v>310.4566388805165</v>
       </c>
       <c r="AD3" t="n">
-        <v>217652.5815755429</v>
+        <v>250841.4536409783</v>
       </c>
       <c r="AE3" t="n">
-        <v>297801.8642657327</v>
+        <v>343212.3432153368</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.534720168826751e-06</v>
+        <v>5.222127727652703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.069010416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>269380.0723078407</v>
+        <v>310456.6388805165</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.6143361047691</v>
+        <v>215.7178673156328</v>
       </c>
       <c r="AB4" t="n">
-        <v>249.8609910343494</v>
+        <v>295.1547028617559</v>
       </c>
       <c r="AC4" t="n">
-        <v>226.0146087322072</v>
+        <v>266.9855522729441</v>
       </c>
       <c r="AD4" t="n">
-        <v>182614.3361047691</v>
+        <v>215717.8673156328</v>
       </c>
       <c r="AE4" t="n">
-        <v>249860.9910343494</v>
+        <v>295154.7028617559</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.881653337455955e-06</v>
+        <v>5.734680131523001e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.258463541666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>226014.6087322072</v>
+        <v>266985.5522729441</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.7044661137568</v>
+        <v>209.8079973246205</v>
       </c>
       <c r="AB5" t="n">
-        <v>241.7748461875875</v>
+        <v>287.068558014994</v>
       </c>
       <c r="AC5" t="n">
-        <v>218.700194200642</v>
+        <v>259.6711377413791</v>
       </c>
       <c r="AD5" t="n">
-        <v>176704.4661137568</v>
+        <v>209807.9973246205</v>
       </c>
       <c r="AE5" t="n">
-        <v>241774.8461875875</v>
+        <v>287068.558014994</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.958957492259794e-06</v>
+        <v>5.848887805959045e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.095703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>218700.1942006421</v>
+        <v>259671.1377413791</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>486.4216066351665</v>
+        <v>554.5681285062481</v>
       </c>
       <c r="AB2" t="n">
-        <v>665.5435016049917</v>
+        <v>758.7845792413682</v>
       </c>
       <c r="AC2" t="n">
-        <v>602.0249639079816</v>
+        <v>686.3672439594169</v>
       </c>
       <c r="AD2" t="n">
-        <v>486421.6066351666</v>
+        <v>554568.128506248</v>
       </c>
       <c r="AE2" t="n">
-        <v>665543.5016049916</v>
+        <v>758784.5792413682</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.109995098220126e-06</v>
+        <v>3.064069504763944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.638671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>602024.9639079816</v>
+        <v>686367.2439594169</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.0971179582533</v>
+        <v>303.7420321617865</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.244595582372</v>
+        <v>415.5932485564811</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.1496727759287</v>
+        <v>375.9296122030375</v>
       </c>
       <c r="AD3" t="n">
-        <v>261097.1179582533</v>
+        <v>303742.0321617865</v>
       </c>
       <c r="AE3" t="n">
-        <v>357244.595582372</v>
+        <v>415593.248556481</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.146535528076588e-06</v>
+        <v>4.569301400448072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>323149.6727759286</v>
+        <v>375929.6122030375</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.1774999662655</v>
+        <v>260.7370733152297</v>
       </c>
       <c r="AB4" t="n">
-        <v>298.5200807656839</v>
+        <v>356.7519666177386</v>
       </c>
       <c r="AC4" t="n">
-        <v>270.0297432330599</v>
+        <v>322.7040596282707</v>
       </c>
       <c r="AD4" t="n">
-        <v>218177.4999662655</v>
+        <v>260737.0733152297</v>
       </c>
       <c r="AE4" t="n">
-        <v>298520.0807656839</v>
+        <v>356751.9666177386</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.518334979159406e-06</v>
+        <v>5.10921704333834e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.779296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>270029.7432330599</v>
+        <v>322704.0596282707</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>199.9757361527071</v>
+        <v>234.0064161695126</v>
       </c>
       <c r="AB5" t="n">
-        <v>273.6156245108397</v>
+        <v>320.1779022374536</v>
       </c>
       <c r="AC5" t="n">
-        <v>247.5021333295462</v>
+        <v>289.6205726205142</v>
       </c>
       <c r="AD5" t="n">
-        <v>199975.7361527071</v>
+        <v>234006.4161695126</v>
       </c>
       <c r="AE5" t="n">
-        <v>273615.6245108397</v>
+        <v>320177.9022374536</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.72719934665131e-06</v>
+        <v>5.412523406278995e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.287760416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>247502.1333295462</v>
+        <v>289620.5726205142</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>189.8253885966646</v>
+        <v>223.8560686134701</v>
       </c>
       <c r="AB6" t="n">
-        <v>259.7274711829394</v>
+        <v>306.2897489095534</v>
       </c>
       <c r="AC6" t="n">
-        <v>234.9394458631106</v>
+        <v>277.0578851540786</v>
       </c>
       <c r="AD6" t="n">
-        <v>189825.3885966646</v>
+        <v>223856.0686134701</v>
       </c>
       <c r="AE6" t="n">
-        <v>259727.4711829394</v>
+        <v>306289.7489095534</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.837088005240872e-06</v>
+        <v>5.57210031145177e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.050130208333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>234939.4458631107</v>
+        <v>277057.8851540787</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>189.0152495162033</v>
+        <v>223.0459295330088</v>
       </c>
       <c r="AB7" t="n">
-        <v>258.619003152239</v>
+        <v>305.1812808788529</v>
       </c>
       <c r="AC7" t="n">
-        <v>233.9367684655153</v>
+        <v>276.0552077564833</v>
       </c>
       <c r="AD7" t="n">
-        <v>189015.2495162033</v>
+        <v>223045.9295330088</v>
       </c>
       <c r="AE7" t="n">
-        <v>258619.003152239</v>
+        <v>305181.2808788529</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.852366134802979e-06</v>
+        <v>5.594286737818623e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.017578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>233936.7684655153</v>
+        <v>276055.2077564833</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.8016373142736</v>
+        <v>206.4956211358397</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.1206265915112</v>
+        <v>282.5364187817823</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.7308685449569</v>
+        <v>255.5715395156863</v>
       </c>
       <c r="AD2" t="n">
-        <v>163801.6373142736</v>
+        <v>206495.6211358397</v>
       </c>
       <c r="AE2" t="n">
-        <v>224120.6265915112</v>
+        <v>282536.4187817823</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.419295429660213e-06</v>
+        <v>5.699761762898249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.60807291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>202730.8685449569</v>
+        <v>255571.5395156863</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.2647325167193</v>
+        <v>264.8921860497809</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.2171450078433</v>
+        <v>362.4371751717878</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.8013332738658</v>
+        <v>327.8466798571618</v>
       </c>
       <c r="AD2" t="n">
-        <v>225264.7325167193</v>
+        <v>264892.1860497809</v>
       </c>
       <c r="AE2" t="n">
-        <v>308217.1450078433</v>
+        <v>362437.1751717879</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.355457025330018e-06</v>
+        <v>5.106692265752831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.13997395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>278801.3332738658</v>
+        <v>327846.6798571618</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.3663537042098</v>
+        <v>193.0512662614523</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.7885641190933</v>
+        <v>264.1412593195782</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.7168134383264</v>
+        <v>238.9319882547806</v>
       </c>
       <c r="AD3" t="n">
-        <v>161366.3537042098</v>
+        <v>193051.2662614523</v>
       </c>
       <c r="AE3" t="n">
-        <v>220788.5641190933</v>
+        <v>264141.2593195782</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.073557854491001e-06</v>
+        <v>6.199574672716877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.352864583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>199716.8134383264</v>
+        <v>238931.9882547806</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.558666147994</v>
+        <v>193.2435787052365</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.0516944889049</v>
+        <v>264.4043896893898</v>
       </c>
       <c r="AC4" t="n">
-        <v>199.9548310149491</v>
+        <v>239.1700058314033</v>
       </c>
       <c r="AD4" t="n">
-        <v>161558.666147994</v>
+        <v>193243.5787052365</v>
       </c>
       <c r="AE4" t="n">
-        <v>221051.6944889049</v>
+        <v>264404.3896893898</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.083590990802959e-06</v>
+        <v>6.214844169306682e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.330078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>199954.8310149491</v>
+        <v>239170.0058314033</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.1978046840547</v>
+        <v>343.0245394016496</v>
       </c>
       <c r="AB2" t="n">
-        <v>402.5344154598492</v>
+        <v>469.3413079839707</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.1170958089608</v>
+        <v>424.5480322746427</v>
       </c>
       <c r="AD2" t="n">
-        <v>294197.8046840547</v>
+        <v>343024.5394016496</v>
       </c>
       <c r="AE2" t="n">
-        <v>402534.4154598492</v>
+        <v>469341.3079839707</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.862810665139552e-06</v>
+        <v>4.273920656945218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.44205729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>364117.0958089607</v>
+        <v>424548.0322746427</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.4757576875012</v>
+        <v>229.221522598085</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.8808466315095</v>
+        <v>313.6309997584235</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.2690605671148</v>
+        <v>283.6984973254453</v>
       </c>
       <c r="AD3" t="n">
-        <v>188475.7576875012</v>
+        <v>229221.522598085</v>
       </c>
       <c r="AE3" t="n">
-        <v>257880.8466315095</v>
+        <v>313630.9997584235</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.757344664404626e-06</v>
+        <v>5.609380030613736e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.717447916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>233269.0605671149</v>
+        <v>283698.4973254453</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.298309670264</v>
+        <v>202.8779429363678</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.0096603219291</v>
+        <v>277.5865518685692</v>
       </c>
       <c r="AC4" t="n">
-        <v>210.7715453719837</v>
+        <v>251.0940809534868</v>
       </c>
       <c r="AD4" t="n">
-        <v>170298.309670264</v>
+        <v>202877.9429363678</v>
       </c>
       <c r="AE4" t="n">
-        <v>233009.6603219291</v>
+        <v>277586.5518685692</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.018460044392574e-06</v>
+        <v>5.999201973771193e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>210771.5453719837</v>
+        <v>251094.0809534868</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.857670454917</v>
+        <v>203.4373037210208</v>
       </c>
       <c r="AB5" t="n">
-        <v>233.7750024247472</v>
+        <v>278.3518939713873</v>
       </c>
       <c r="AC5" t="n">
-        <v>211.4638442986734</v>
+        <v>251.7863798801766</v>
       </c>
       <c r="AD5" t="n">
-        <v>170857.670454917</v>
+        <v>203437.3037210208</v>
       </c>
       <c r="AE5" t="n">
-        <v>233775.0024247472</v>
+        <v>278351.8939713872</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.017856309409944e-06</v>
+        <v>5.998300651359269e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>211463.8442986734</v>
+        <v>251786.3798801766</v>
       </c>
     </row>
   </sheetData>
